--- a/www/downloads/export.xlsx
+++ b/www/downloads/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -41,33 +41,45 @@
     <t>yjds</t>
   </si>
   <si>
+    <t>проверкаtest</t>
+  </si>
+  <si>
+    <t>проверка key</t>
+  </si>
+  <si>
+    <t>yjds-descr</t>
+  </si>
+  <si>
+    <t>Жироуловитель Биофор 0,35-20 эконом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жироуловитель Биофор 0,35-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жироуловитель Биофор 0,35-20 эконом </t>
+  </si>
+  <si>
+    <t>Жироуловитель BioFor 1.0-60 (профи)</t>
+  </si>
+  <si>
+    <t>Жироуловитель BioFor 0.5-40 (профи)</t>
+  </si>
+  <si>
+    <t>Тестовый товар вторник</t>
+  </si>
+  <si>
+    <t>тест23</t>
+  </si>
+  <si>
+    <t>test23</t>
+  </si>
+  <si>
     <t>проверка</t>
   </si>
   <si>
     <t>проверка проверка</t>
   </si>
   <si>
-    <t>Жироуловитель Биофор 0,35-20 эконом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жироуловитель Биофор 0,35-20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жироуловитель Биофор 0,35-20 эконом </t>
-  </si>
-  <si>
-    <t>Жироуловитель BioFor 1.0-60 (профи)</t>
-  </si>
-  <si>
-    <t>Жироуловитель BioFor 0.5-40 (профи)</t>
-  </si>
-  <si>
-    <t>Тестовый товар вторник</t>
-  </si>
-  <si>
-    <t>тест23</t>
-  </si>
-  <si>
     <t>Товар для тестовой подкатегории</t>
   </si>
   <si>
@@ -87,6 +99,9 @@
   </si>
   <si>
     <t>сео2_COPY</t>
+  </si>
+  <si>
+    <t>тест титлcopy</t>
   </si>
   <si>
     <t>тест вывода отрибутов_COPY_НЕ_УДАЛЯТЬ</t>
@@ -511,7 +526,9 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
@@ -519,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -527,20 +544,20 @@
         <v>9083081836</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -548,20 +565,20 @@
         <v>3763169891</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -569,20 +586,20 @@
         <v>6474597177</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -590,20 +607,20 @@
         <v>9734961080</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -611,18 +628,18 @@
         <v>9895992886</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -630,20 +647,22 @@
         <v>8197576505</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8"/>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -651,18 +670,18 @@
         <v>1844726707</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -670,20 +689,20 @@
         <v>4075052626</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -691,20 +710,20 @@
         <v>6968202703</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -712,20 +731,20 @@
         <v>9231706644</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -733,20 +752,20 @@
         <v>7450277628</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -754,20 +773,20 @@
         <v>2202308888</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -775,20 +794,20 @@
         <v>4816401698</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -796,20 +815,20 @@
         <v>3704745299</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -817,20 +836,20 @@
         <v>9546773461</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -838,20 +857,20 @@
         <v>6486885693</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -859,20 +878,20 @@
         <v>3332600791</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
